--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW9.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW9.xlsx
@@ -3105,37 +3105,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>2.899329706467231</v>
+        <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>3.037832028418225</v>
+        <v>0.0</v>
       </c>
       <c r="D80" t="n">
-        <v>2.562377446406972</v>
+        <v>0.0</v>
       </c>
       <c r="E80" t="n">
-        <v>2.899329706467231</v>
+        <v>0.0</v>
       </c>
       <c r="F80" t="n">
-        <v>3.037832028418225</v>
+        <v>0.0</v>
       </c>
       <c r="G80" t="n">
-        <v>2.562377446406972</v>
+        <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>2.899329706467231</v>
+        <v>0.0</v>
       </c>
       <c r="I80" t="n">
-        <v>3.037832028418225</v>
+        <v>0.0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.562377446406972</v>
+        <v>0.0</v>
       </c>
       <c r="K80" t="n">
-        <v>2.899329706467231</v>
+        <v>0.0</v>
       </c>
       <c r="L80" t="n">
-        <v>3.037832028418225</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>2.8040312303334662</v>
+        <v>0.0</v>
       </c>
       <c r="C111" t="n">
-        <v>2.8023551794961667</v>
+        <v>0.0</v>
       </c>
       <c r="D111" t="n">
-        <v>2.512856791461041</v>
+        <v>0.0</v>
       </c>
       <c r="E111" t="n">
-        <v>2.8040312303334662</v>
+        <v>0.0</v>
       </c>
       <c r="F111" t="n">
-        <v>2.8023551794961667</v>
+        <v>0.0</v>
       </c>
       <c r="G111" t="n">
-        <v>2.512856791461041</v>
+        <v>0.0</v>
       </c>
       <c r="H111" t="n">
-        <v>2.8040312303334662</v>
+        <v>0.0</v>
       </c>
       <c r="I111" t="n">
-        <v>2.8023551794961667</v>
+        <v>0.0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.512856791461041</v>
+        <v>0.0</v>
       </c>
       <c r="K111" t="n">
-        <v>2.8040312303334662</v>
+        <v>0.0</v>
       </c>
       <c r="L111" t="n">
-        <v>2.8023551794961667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -8083,37 +8083,37 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="n">
-        <v>-7.763130120323735E-4</v>
+        <v>-0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>-7.711903704366053E-4</v>
+        <v>-0.0</v>
       </c>
       <c r="D211" t="n">
-        <v>-7.435363490177501E-4</v>
+        <v>-0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>-7.763130120323735E-4</v>
+        <v>-0.0</v>
       </c>
       <c r="F211" t="n">
-        <v>-7.711903704366053E-4</v>
+        <v>-0.0</v>
       </c>
       <c r="G211" t="n">
-        <v>-7.435363490177501E-4</v>
+        <v>-0.0</v>
       </c>
       <c r="H211" t="n">
-        <v>-7.763130120323735E-4</v>
+        <v>-0.0</v>
       </c>
       <c r="I211" t="n">
-        <v>-7.711903704366053E-4</v>
+        <v>-0.0</v>
       </c>
       <c r="J211" t="n">
-        <v>-7.435363490177501E-4</v>
+        <v>-0.0</v>
       </c>
       <c r="K211" t="n">
-        <v>-7.763130120323735E-4</v>
+        <v>-0.0</v>
       </c>
       <c r="L211" t="n">
-        <v>-7.711903704366053E-4</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="212">
@@ -12719,37 +12719,37 @@
         <v>332.0</v>
       </c>
       <c r="B333" t="n">
-        <v>1.7442846171509179</v>
+        <v>0.0</v>
       </c>
       <c r="C333" t="n">
-        <v>1.743242007617387</v>
+        <v>0.0</v>
       </c>
       <c r="D333" t="n">
-        <v>1.5631557163246879</v>
+        <v>0.0</v>
       </c>
       <c r="E333" t="n">
-        <v>1.7442846171509179</v>
+        <v>0.0</v>
       </c>
       <c r="F333" t="n">
-        <v>1.743242007617387</v>
+        <v>0.0</v>
       </c>
       <c r="G333" t="n">
-        <v>1.5631557163246879</v>
+        <v>0.0</v>
       </c>
       <c r="H333" t="n">
-        <v>1.7442846171509179</v>
+        <v>0.0</v>
       </c>
       <c r="I333" t="n">
-        <v>1.743242007617387</v>
+        <v>0.0</v>
       </c>
       <c r="J333" t="n">
-        <v>1.5631557163246879</v>
+        <v>0.0</v>
       </c>
       <c r="K333" t="n">
-        <v>1.7442846171509179</v>
+        <v>0.0</v>
       </c>
       <c r="L333" t="n">
-        <v>1.743242007617387</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="334">
@@ -14011,37 +14011,37 @@
         <v>366.0</v>
       </c>
       <c r="B367" t="n">
-        <v>1.158681076380712</v>
+        <v>0.0</v>
       </c>
       <c r="C367" t="n">
-        <v>1.0789571485664327</v>
+        <v>0.0</v>
       </c>
       <c r="D367" t="n">
-        <v>1.2265365318813501</v>
+        <v>0.0</v>
       </c>
       <c r="E367" t="n">
-        <v>1.158681076380712</v>
+        <v>0.0</v>
       </c>
       <c r="F367" t="n">
-        <v>1.0789571485664327</v>
+        <v>0.0</v>
       </c>
       <c r="G367" t="n">
-        <v>1.2265365318813501</v>
+        <v>0.0</v>
       </c>
       <c r="H367" t="n">
-        <v>1.158681076380712</v>
+        <v>0.0</v>
       </c>
       <c r="I367" t="n">
-        <v>1.0789571485664327</v>
+        <v>0.0</v>
       </c>
       <c r="J367" t="n">
-        <v>1.2265365318813501</v>
+        <v>0.0</v>
       </c>
       <c r="K367" t="n">
-        <v>1.158681076380712</v>
+        <v>0.0</v>
       </c>
       <c r="L367" t="n">
-        <v>1.0789571485664327</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="368">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>0.4208827584594348</v>
+        <v>0.0</v>
       </c>
       <c r="C400" t="n">
-        <v>0.5226827496419004</v>
+        <v>0.0</v>
       </c>
       <c r="D400" t="n">
-        <v>0.4778798915213118</v>
+        <v>0.0</v>
       </c>
       <c r="E400" t="n">
-        <v>0.4208827584594348</v>
+        <v>0.0</v>
       </c>
       <c r="F400" t="n">
-        <v>0.5226827496419004</v>
+        <v>0.0</v>
       </c>
       <c r="G400" t="n">
-        <v>0.4778798915213118</v>
+        <v>0.0</v>
       </c>
       <c r="H400" t="n">
-        <v>0.4208827584594348</v>
+        <v>0.0</v>
       </c>
       <c r="I400" t="n">
-        <v>0.5226827496419004</v>
+        <v>0.0</v>
       </c>
       <c r="J400" t="n">
-        <v>0.4778798915213118</v>
+        <v>0.0</v>
       </c>
       <c r="K400" t="n">
-        <v>0.4208827584594348</v>
+        <v>0.0</v>
       </c>
       <c r="L400" t="n">
-        <v>0.5226827496419004</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="401">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>4.79042888806712</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>3.9710069635341267</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>4.023287786229331</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>4.79042888806712</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>3.9710069635341267</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>4.023287786229331</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>4.79042888806712</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>3.9710069635341267</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>4.023287786229331</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>4.79042888806712</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>3.9710069635341267</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>1.9425673123616414</v>
+        <v>0.0</v>
       </c>
       <c r="C473" t="n">
-        <v>1.7886842193727044</v>
+        <v>0.0</v>
       </c>
       <c r="D473" t="n">
-        <v>2.0141782346895787</v>
+        <v>0.0</v>
       </c>
       <c r="E473" t="n">
-        <v>1.9425673123616414</v>
+        <v>0.0</v>
       </c>
       <c r="F473" t="n">
-        <v>1.7886842193727044</v>
+        <v>0.0</v>
       </c>
       <c r="G473" t="n">
-        <v>2.0141782346895787</v>
+        <v>0.0</v>
       </c>
       <c r="H473" t="n">
-        <v>1.9425673123616414</v>
+        <v>0.0</v>
       </c>
       <c r="I473" t="n">
-        <v>1.7886842193727044</v>
+        <v>0.0</v>
       </c>
       <c r="J473" t="n">
-        <v>2.0141782346895787</v>
+        <v>0.0</v>
       </c>
       <c r="K473" t="n">
-        <v>1.9425673123616414</v>
+        <v>0.0</v>
       </c>
       <c r="L473" t="n">
-        <v>1.7886842193727044</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="474">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>0.27458637586577456</v>
+        <v>0.0</v>
       </c>
       <c r="C520" t="n">
-        <v>0.2321638497094753</v>
+        <v>0.0</v>
       </c>
       <c r="D520" t="n">
-        <v>0.29605012060982977</v>
+        <v>0.0</v>
       </c>
       <c r="E520" t="n">
-        <v>0.27458637586577456</v>
+        <v>0.0</v>
       </c>
       <c r="F520" t="n">
-        <v>0.2321638497094753</v>
+        <v>0.0</v>
       </c>
       <c r="G520" t="n">
-        <v>0.29605012060982977</v>
+        <v>0.0</v>
       </c>
       <c r="H520" t="n">
-        <v>0.27458637586577456</v>
+        <v>0.0</v>
       </c>
       <c r="I520" t="n">
-        <v>0.2321638497094753</v>
+        <v>0.0</v>
       </c>
       <c r="J520" t="n">
-        <v>0.29605012060982977</v>
+        <v>0.0</v>
       </c>
       <c r="K520" t="n">
-        <v>0.27458637586577456</v>
+        <v>0.0</v>
       </c>
       <c r="L520" t="n">
-        <v>0.2321638497094753</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="521">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>0.48227209176785873</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>0.5053104527976571</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>0.4262237330997531</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>0.48227209176785873</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>0.5053104527976571</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>0.4262237330997531</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>0.48227209176785873</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>0.5053104527976571</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>0.4262237330997531</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>0.48227209176785873</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>0.5053104527976571</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -20737,37 +20737,37 @@
         <v>543.0</v>
       </c>
       <c r="B544" t="n">
-        <v>2.119915870208714</v>
+        <v>0.0</v>
       </c>
       <c r="C544" t="n">
-        <v>2.157008222130987</v>
+        <v>0.0</v>
       </c>
       <c r="D544" t="n">
-        <v>2.145294018043102</v>
+        <v>0.0</v>
       </c>
       <c r="E544" t="n">
-        <v>2.119915870208714</v>
+        <v>0.0</v>
       </c>
       <c r="F544" t="n">
-        <v>2.157008222130987</v>
+        <v>0.0</v>
       </c>
       <c r="G544" t="n">
-        <v>2.145294018043102</v>
+        <v>0.0</v>
       </c>
       <c r="H544" t="n">
-        <v>2.119915870208714</v>
+        <v>0.0</v>
       </c>
       <c r="I544" t="n">
-        <v>2.157008222130987</v>
+        <v>0.0</v>
       </c>
       <c r="J544" t="n">
-        <v>2.145294018043102</v>
+        <v>0.0</v>
       </c>
       <c r="K544" t="n">
-        <v>2.119915870208714</v>
+        <v>0.0</v>
       </c>
       <c r="L544" t="n">
-        <v>2.157008222130987</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="545">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>0.5959224227849144</v>
+        <v>0.0</v>
       </c>
       <c r="C562" t="n">
-        <v>0.5649244235279397</v>
+        <v>0.0</v>
       </c>
       <c r="D562" t="n">
-        <v>0.4926182779224991</v>
+        <v>0.0</v>
       </c>
       <c r="E562" t="n">
-        <v>0.5959224227849144</v>
+        <v>0.0</v>
       </c>
       <c r="F562" t="n">
-        <v>0.5649244235279397</v>
+        <v>0.0</v>
       </c>
       <c r="G562" t="n">
-        <v>0.4926182779224991</v>
+        <v>0.0</v>
       </c>
       <c r="H562" t="n">
-        <v>0.5959224227849144</v>
+        <v>0.0</v>
       </c>
       <c r="I562" t="n">
-        <v>0.5649244235279397</v>
+        <v>0.0</v>
       </c>
       <c r="J562" t="n">
-        <v>0.4926182779224991</v>
+        <v>0.0</v>
       </c>
       <c r="K562" t="n">
-        <v>0.5959224227849144</v>
+        <v>0.0</v>
       </c>
       <c r="L562" t="n">
-        <v>0.5649244235279397</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="563">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>1.9573375812779579</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>1.8022844414903036</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>2.029492995718677</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>1.9573375812779579</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>1.8022844414903036</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>2.029492995718677</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>1.9573375812779579</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>1.8022844414903036</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>2.029492995718677</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>1.9573375812779579</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>1.8022844414903036</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23435,37 +23435,37 @@
         <v>614.0</v>
       </c>
       <c r="B615" t="n">
-        <v>0.8030833140682769</v>
+        <v>0.0</v>
       </c>
       <c r="C615" t="n">
-        <v>0.6790100683024245</v>
+        <v>0.0</v>
       </c>
       <c r="D615" t="n">
-        <v>0.8658583705765337</v>
+        <v>0.0</v>
       </c>
       <c r="E615" t="n">
-        <v>0.8030833140682769</v>
+        <v>0.0</v>
       </c>
       <c r="F615" t="n">
-        <v>0.6790100683024245</v>
+        <v>0.0</v>
       </c>
       <c r="G615" t="n">
-        <v>0.8658583705765337</v>
+        <v>0.0</v>
       </c>
       <c r="H615" t="n">
-        <v>0.8030833140682769</v>
+        <v>0.0</v>
       </c>
       <c r="I615" t="n">
-        <v>0.6790100683024245</v>
+        <v>0.0</v>
       </c>
       <c r="J615" t="n">
-        <v>0.8658583705765337</v>
+        <v>0.0</v>
       </c>
       <c r="K615" t="n">
-        <v>0.8030833140682769</v>
+        <v>0.0</v>
       </c>
       <c r="L615" t="n">
-        <v>0.6790100683024245</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="616">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>0.060053276756551796</v>
+        <v>0.0</v>
       </c>
       <c r="C620" t="n">
-        <v>0.06213919976806914</v>
+        <v>0.0</v>
       </c>
       <c r="D620" t="n">
-        <v>0.052138672272201855</v>
+        <v>0.0</v>
       </c>
       <c r="E620" t="n">
-        <v>0.060053276756551796</v>
+        <v>0.0</v>
       </c>
       <c r="F620" t="n">
-        <v>0.06213919976806914</v>
+        <v>0.0</v>
       </c>
       <c r="G620" t="n">
-        <v>0.052138672272201855</v>
+        <v>0.0</v>
       </c>
       <c r="H620" t="n">
-        <v>0.060053276756551796</v>
+        <v>0.0</v>
       </c>
       <c r="I620" t="n">
-        <v>0.06213919976806914</v>
+        <v>0.0</v>
       </c>
       <c r="J620" t="n">
-        <v>0.052138672272201855</v>
+        <v>0.0</v>
       </c>
       <c r="K620" t="n">
-        <v>0.060053276756551796</v>
+        <v>0.0</v>
       </c>
       <c r="L620" t="n">
-        <v>0.06213919976806914</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="621">
@@ -23815,37 +23815,37 @@
         <v>624.0</v>
       </c>
       <c r="B625" t="n">
-        <v>2.4242933647066383</v>
+        <v>0.0</v>
       </c>
       <c r="C625" t="n">
-        <v>2.5085000822952614</v>
+        <v>0.0</v>
       </c>
       <c r="D625" t="n">
-        <v>2.1047883489608714</v>
+        <v>0.0</v>
       </c>
       <c r="E625" t="n">
-        <v>2.4242933647066383</v>
+        <v>0.0</v>
       </c>
       <c r="F625" t="n">
-        <v>2.5085000822952614</v>
+        <v>0.0</v>
       </c>
       <c r="G625" t="n">
-        <v>2.1047883489608714</v>
+        <v>0.0</v>
       </c>
       <c r="H625" t="n">
-        <v>2.4242933647066383</v>
+        <v>0.0</v>
       </c>
       <c r="I625" t="n">
-        <v>2.5085000822952614</v>
+        <v>0.0</v>
       </c>
       <c r="J625" t="n">
-        <v>2.1047883489608714</v>
+        <v>0.0</v>
       </c>
       <c r="K625" t="n">
-        <v>2.4242933647066383</v>
+        <v>0.0</v>
       </c>
       <c r="L625" t="n">
-        <v>2.5085000822952614</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="626">
